--- a/Dx_2014_Zeng_and_Huai_Paper02_Chattahoochee.xlsx
+++ b/Dx_2014_Zeng_and_Huai_Paper02_Chattahoochee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="63900" windowWidth="14805" windowHeight="7335" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="63900" windowWidth="14805" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="8" r:id="rId1"/>
@@ -12,10 +12,10 @@
     <sheet name="Initial Concentration" sheetId="10" r:id="rId3"/>
     <sheet name="Loading" sheetId="3" r:id="rId4"/>
     <sheet name="hidden tab" sheetId="11" r:id="rId5"/>
-    <sheet name="LDC" sheetId="12" r:id="rId6"/>
-    <sheet name="چاتا" sheetId="14" state="hidden" r:id="rId7"/>
-    <sheet name="ماکیناو" sheetId="15" state="hidden" r:id="rId8"/>
-    <sheet name="سورن سفارش نوری" sheetId="13" state="hidden" r:id="rId9"/>
+    <sheet name="چاتا" sheetId="14" state="hidden" r:id="rId6"/>
+    <sheet name="ماکیناو" sheetId="15" state="hidden" r:id="rId7"/>
+    <sheet name="سورن سفارش نوری" sheetId="13" state="hidden" r:id="rId8"/>
+    <sheet name="LDC" sheetId="16" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_ftn1" localSheetId="4">'hidden tab'!$P$24</definedName>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="116">
   <si>
     <t>Project Name</t>
   </si>
@@ -432,9 +432,6 @@
   </si>
   <si>
     <t>Only Observed Concentration (if you had losses and want to use formula look @ AP column) PPM</t>
-  </si>
-  <si>
-    <t>Li et al. (1998) [1]</t>
   </si>
   <si>
     <t>St1 @ 16 (km)</t>
@@ -1342,7 +1339,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1386,7 +1383,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1421,9 +1417,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1518,9 +1511,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="32" borderId="7" xfId="37" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5443,20 +5433,20 @@
   </sheetPr>
   <dimension ref="A1:X91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" style="47" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="41"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -5484,7 +5474,7 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42" t="str">
+      <c r="B2" s="40" t="str">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
         <v>Dx_2014_Zeng_and_Huai_Paper02_Chattahoochee.xlsx</v>
       </c>
@@ -5515,7 +5505,7 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="56">
         <f>DATE(2019,2,6)</f>
         <v>43502</v>
       </c>
@@ -5546,7 +5536,7 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="5"/>
@@ -5576,7 +5566,7 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5"/>
@@ -5606,7 +5596,7 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="43" t="str">
+      <c r="B6" s="41" t="str">
         <f ca="1">LEFT(CELL("filename"),FIND("[",CELL("filename"),1)-1)</f>
         <v>C:\Users\Mostafa\Desktop\watum_Working_Branch\</v>
       </c>
@@ -5635,7 +5625,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="44"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -5663,7 +5653,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="41"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -5691,8 +5681,8 @@
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="45">
-        <v>60</v>
+      <c r="B9" s="43">
+        <v>10</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -5721,8 +5711,8 @@
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="66">
-        <v>10</v>
+      <c r="B10" s="63">
+        <v>2</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -5751,7 +5741,7 @@
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="44" t="s">
         <v>100</v>
       </c>
       <c r="C11" s="5"/>
@@ -5781,7 +5771,7 @@
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="43">
         <v>50</v>
       </c>
       <c r="C12" s="5"/>
@@ -5811,7 +5801,7 @@
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="45">
         <v>0</v>
       </c>
       <c r="C13" s="5"/>
@@ -5841,7 +5831,7 @@
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="43">
         <v>0.5</v>
       </c>
       <c r="C14" s="5"/>
@@ -5869,7 +5859,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
-      <c r="B15" s="44"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -5895,7 +5885,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="44"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -5921,7 +5911,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="44"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -5947,7 +5937,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="44"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -5973,7 +5963,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="44"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -5999,7 +5989,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="48"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -6025,7 +6015,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="44"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -6051,7 +6041,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="44"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -6077,7 +6067,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="44"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -6103,7 +6093,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="44"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -6129,7 +6119,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
-      <c r="B25" s="44"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -6155,7 +6145,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
-      <c r="B26" s="44"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -6181,7 +6171,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
-      <c r="B27" s="44"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -6207,7 +6197,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
-      <c r="B28" s="44"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -6233,7 +6223,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="44"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -6259,7 +6249,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
-      <c r="B30" s="44"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -6285,7 +6275,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="44"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -6311,7 +6301,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
-      <c r="B32" s="44"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -6337,7 +6327,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
-      <c r="B33" s="44"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -6363,7 +6353,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
-      <c r="B34" s="44"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -6389,7 +6379,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
-      <c r="B35" s="44"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -6415,7 +6405,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
-      <c r="B36" s="44"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -6441,7 +6431,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
-      <c r="B37" s="44"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -6467,7 +6457,7 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
-      <c r="B38" s="44"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -6493,7 +6483,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="44"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -6519,7 +6509,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
-      <c r="B40" s="44"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -6545,7 +6535,7 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
-      <c r="B41" s="44"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -6571,7 +6561,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
-      <c r="B42" s="44"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -6597,7 +6587,7 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
-      <c r="B43" s="44"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -6623,7 +6613,7 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
-      <c r="B44" s="44"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -6649,7 +6639,7 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
-      <c r="B45" s="44"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -6675,7 +6665,7 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
-      <c r="B46" s="44"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -6701,7 +6691,7 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
-      <c r="B47" s="44"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -6727,7 +6717,7 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
-      <c r="B48" s="44"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -6753,7 +6743,7 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
-      <c r="B49" s="44"/>
+      <c r="B49" s="42"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -6779,7 +6769,7 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
-      <c r="B50" s="44"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -6805,7 +6795,7 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
-      <c r="B51" s="44"/>
+      <c r="B51" s="42"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -6831,7 +6821,7 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
-      <c r="B52" s="44"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -6857,7 +6847,7 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
-      <c r="B53" s="44"/>
+      <c r="B53" s="42"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -6883,7 +6873,7 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
-      <c r="B54" s="44"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -6909,7 +6899,7 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
-      <c r="B55" s="44"/>
+      <c r="B55" s="42"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -6935,7 +6925,7 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
-      <c r="B56" s="44"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -6961,7 +6951,7 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="44"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -6987,7 +6977,7 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
-      <c r="B58" s="44"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -7013,7 +7003,7 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
-      <c r="B59" s="44"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -7039,7 +7029,7 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
-      <c r="B60" s="44"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -7065,7 +7055,7 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
-      <c r="B61" s="44"/>
+      <c r="B61" s="42"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -7091,7 +7081,7 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
-      <c r="B62" s="44"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -7117,7 +7107,7 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
-      <c r="B63" s="44"/>
+      <c r="B63" s="42"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -7851,1121 +7841,1121 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="55" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="55" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="55" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="55" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="55" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="55" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="55" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" style="55" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" style="55" customWidth="1"/>
-    <col min="11" max="12" width="19.140625" style="55" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="55" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="55" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" style="55" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="55" customWidth="1"/>
-    <col min="17" max="17" width="39.7109375" style="55" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" style="55" customWidth="1"/>
-    <col min="19" max="19" width="22.5703125" style="55" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="55"/>
-    <col min="21" max="21" width="21.42578125" style="55" customWidth="1"/>
-    <col min="22" max="22" width="38.5703125" style="55" customWidth="1"/>
-    <col min="23" max="23" width="29.42578125" style="55" customWidth="1"/>
-    <col min="24" max="24" width="41.140625" style="56" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" style="57" customWidth="1"/>
-    <col min="26" max="27" width="19.42578125" style="55" customWidth="1"/>
-    <col min="28" max="28" width="16.42578125" style="55" customWidth="1"/>
-    <col min="29" max="30" width="12.140625" style="55" customWidth="1"/>
-    <col min="31" max="31" width="11.140625" style="55" customWidth="1"/>
-    <col min="32" max="34" width="12.28515625" style="55" customWidth="1"/>
-    <col min="35" max="35" width="11.140625" style="55" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" style="55"/>
-    <col min="37" max="37" width="12.28515625" style="55" customWidth="1"/>
-    <col min="38" max="39" width="11.140625" style="55" customWidth="1"/>
-    <col min="40" max="40" width="9.140625" style="55"/>
-    <col min="41" max="41" width="30.140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="26.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.140625" style="55"/>
+    <col min="1" max="1" width="23.28515625" style="53" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="53" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="53" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="53" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="53" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="53" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="53" customWidth="1"/>
+    <col min="11" max="12" width="19.140625" style="53" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="53" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="53" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="53" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="53" customWidth="1"/>
+    <col min="17" max="17" width="39.7109375" style="53" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" style="53" customWidth="1"/>
+    <col min="19" max="19" width="22.5703125" style="53" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="53"/>
+    <col min="21" max="21" width="21.42578125" style="53" customWidth="1"/>
+    <col min="22" max="22" width="38.5703125" style="53" customWidth="1"/>
+    <col min="23" max="23" width="29.42578125" style="53" customWidth="1"/>
+    <col min="24" max="24" width="41.140625" style="54" customWidth="1"/>
+    <col min="25" max="25" width="17.140625" style="55" customWidth="1"/>
+    <col min="26" max="27" width="19.42578125" style="53" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" style="53" customWidth="1"/>
+    <col min="29" max="30" width="12.140625" style="53" customWidth="1"/>
+    <col min="31" max="31" width="11.140625" style="53" customWidth="1"/>
+    <col min="32" max="34" width="12.28515625" style="53" customWidth="1"/>
+    <col min="35" max="35" width="11.140625" style="53" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" style="53"/>
+    <col min="37" max="37" width="12.28515625" style="53" customWidth="1"/>
+    <col min="38" max="39" width="11.140625" style="53" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="53"/>
+    <col min="41" max="41" width="30.140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="90" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:42" s="87" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="I1" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="J1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="84" t="s">
+      <c r="K1" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="L1" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="84" t="s">
+      <c r="M1" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="84" t="s">
+      <c r="N1" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="84" t="s">
+      <c r="O1" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="84" t="s">
+      <c r="P1" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="84" t="s">
+      <c r="Q1" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="84" t="s">
+      <c r="R1" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="84" t="s">
+      <c r="S1" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="84" t="s">
+      <c r="T1" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="84" t="s">
+      <c r="U1" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="84" t="s">
+      <c r="V1" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="84" t="s">
+      <c r="W1" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="85" t="s">
+      <c r="X1" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="Y1" s="86" t="s">
+      <c r="Y1" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="84" t="s">
+      <c r="Z1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="84" t="s">
+      <c r="AA1" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" s="87" t="s">
+      <c r="AB1" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="AC1" s="87" t="s">
+      <c r="AC1" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="87" t="s">
+      <c r="AD1" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="AE1" s="88" t="s">
+      <c r="AE1" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="88" t="s">
+      <c r="AF1" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="AG1" s="88" t="s">
+      <c r="AG1" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="AH1" s="88" t="s">
+      <c r="AH1" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="AI1" s="88" t="s">
+      <c r="AI1" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="AJ1" s="88" t="s">
+      <c r="AJ1" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="AK1" s="88" t="s">
+      <c r="AK1" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="AL1" s="88" t="s">
+      <c r="AL1" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="AM1" s="88" t="s">
+      <c r="AM1" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="AN1" s="88" t="s">
+      <c r="AN1" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="AO1" s="89" t="s">
+      <c r="AO1" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="AP1" s="89" t="s">
+      <c r="AP1" s="86" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="75" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="68">
+    <row r="2" spans="1:42" s="72" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="65">
         <v>0</v>
       </c>
-      <c r="C2" s="68">
+      <c r="C2" s="65">
         <v>16000</v>
       </c>
-      <c r="D2" s="69">
+      <c r="D2" s="66">
         <v>136.19999999999999</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="67">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F2" s="71">
+      <c r="F2" s="68">
         <v>4.83</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69">
+      <c r="G2" s="65"/>
+      <c r="H2" s="66">
         <v>136.19999999999999</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="72">
+      <c r="I2" s="65"/>
+      <c r="J2" s="69">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K2" s="69">
+      <c r="K2" s="66">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L2" s="69">
+      <c r="L2" s="66">
         <v>74.099999999999994</v>
       </c>
-      <c r="M2" s="69">
+      <c r="M2" s="66">
         <v>1.1459499999999999E-2</v>
       </c>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="74">
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="71">
         <f>Table1[Q '[m3/sec']]/(Table1[depth '[meters']]*Table1[width '[meters']])</f>
         <v>0.79915507833127974</v>
       </c>
-      <c r="R2" s="75">
+      <c r="R2" s="72">
         <f>(Table1[[#This Row],[Reach Length '[meters']]]/(Table1[[#This Row],[Q '[m3/sec']]]/(Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]])))/3600</f>
         <v>5.5614292706803719</v>
       </c>
-      <c r="S2" s="75">
+      <c r="S2" s="72">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
         <v>0.92017483321831151</v>
       </c>
-      <c r="T2" s="75">
+      <c r="T2" s="72">
         <v>1</v>
       </c>
-      <c r="U2" s="75">
+      <c r="U2" s="72">
         <v>0</v>
       </c>
-      <c r="V2" s="75">
+      <c r="V2" s="72">
         <v>0</v>
       </c>
-      <c r="W2" s="75">
+      <c r="W2" s="72">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>16</v>
       </c>
-      <c r="X2" s="69">
+      <c r="X2" s="66">
         <v>1.1459499999999999E-2</v>
       </c>
-      <c r="Y2" s="76" t="str">
+      <c r="Y2" s="73" t="str">
         <f>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</f>
         <v>use Ti</v>
       </c>
-      <c r="Z2" s="75">
+      <c r="Z2" s="72">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</f>
         <v>16000</v>
       </c>
-      <c r="AA2" s="75">
+      <c r="AA2" s="72">
         <f>(Table1[[#This Row],[Tp]]-AN2)*3600</f>
         <v>17388</v>
       </c>
-      <c r="AB2" s="77">
+      <c r="AB2" s="74">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>1738</v>
-      </c>
-      <c r="AC2" s="77">
+        <v>8694</v>
+      </c>
+      <c r="AC2" s="74">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>266.66666666666669</v>
-      </c>
-      <c r="AD2" s="77">
+        <v>1600</v>
+      </c>
+      <c r="AD2" s="74">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="75">
+      <c r="AE2" s="72">
         <f t="shared" ref="AE2:AE3" si="0">Delta_T__seconds</f>
-        <v>10</v>
-      </c>
-      <c r="AF2" s="76">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="73">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
         <v>-0.38344011708466974</v>
       </c>
-      <c r="AG2" s="76">
+      <c r="AG2" s="73">
         <f>(('Reach Propertise'!$F2-'Reach Propertise'!$R2)/'Reach Propertise'!$F2)</f>
         <v>-0.15143463161084303</v>
       </c>
-      <c r="AH2" s="76" t="e">
+      <c r="AH2" s="73" t="e">
         <f>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI2" s="78">
+      <c r="AI2" s="75">
         <f>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</f>
         <v>32.217391304347828</v>
       </c>
-      <c r="AJ2" s="75">
+      <c r="AJ2" s="72">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>10225.799999999999</v>
-      </c>
-      <c r="AK2" s="75">
+        <v>1704.2999999999997</v>
+      </c>
+      <c r="AK2" s="72">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
         <v>4.83</v>
       </c>
-      <c r="AL2" s="75">
+      <c r="AL2" s="72">
         <v>0</v>
       </c>
-      <c r="AM2" s="75">
+      <c r="AM2" s="72">
         <f>'Reach Propertise'!$F2</f>
         <v>4.83</v>
       </c>
-      <c r="AN2" s="75">
+      <c r="AN2" s="72">
         <v>0</v>
       </c>
-      <c r="AO2" s="79">
+      <c r="AO2" s="76">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>266</v>
-      </c>
-      <c r="AP2" s="79">
+        <v>1600</v>
+      </c>
+      <c r="AP2" s="76">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:42" s="72" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="68">
+    <row r="3" spans="1:42" s="69" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="65">
         <f>C2</f>
         <v>16000</v>
       </c>
-      <c r="C3" s="68">
+      <c r="C3" s="65">
         <v>27900</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="66">
         <v>179.5</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="67">
         <v>7.02</v>
       </c>
-      <c r="F3" s="71">
+      <c r="F3" s="68">
         <v>8.08</v>
       </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69">
+      <c r="G3" s="65"/>
+      <c r="H3" s="66">
         <v>179.5</v>
       </c>
-      <c r="I3" s="68"/>
-      <c r="J3" s="72">
+      <c r="I3" s="65"/>
+      <c r="J3" s="69">
         <v>2.7999999999999998E-4</v>
       </c>
-      <c r="K3" s="69">
+      <c r="K3" s="66">
         <v>2.9</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="66">
         <v>65.8</v>
       </c>
-      <c r="M3" s="69">
+      <c r="M3" s="66">
         <v>8.4092000000000004E-3</v>
       </c>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="74">
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="71">
         <f>Table1[Q '[m3/sec']]/(Table1[depth '[meters']]*Table1[width '[meters']])</f>
         <v>0.94067707787443666</v>
       </c>
-      <c r="R3" s="75">
+      <c r="R3" s="72">
         <f>(Table1[[#This Row],[Reach Length '[meters']]]/(Table1[[#This Row],[Q '[m3/sec']]]/(Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]])))/3600</f>
         <v>3.5140173320953263</v>
       </c>
-      <c r="S3" s="75">
+      <c r="S3" s="72">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
         <v>0.95915841584158412</v>
       </c>
-      <c r="T3" s="75">
+      <c r="T3" s="72">
         <v>1</v>
       </c>
-      <c r="U3" s="75">
+      <c r="U3" s="72">
         <v>0</v>
       </c>
-      <c r="V3" s="75">
+      <c r="V3" s="72">
         <v>0</v>
       </c>
-      <c r="W3" s="75">
+      <c r="W3" s="72">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>27.9</v>
       </c>
-      <c r="X3" s="69">
+      <c r="X3" s="66">
         <v>8.4092000000000004E-3</v>
       </c>
-      <c r="Y3" s="76" t="str">
+      <c r="Y3" s="73" t="str">
         <f>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</f>
         <v>use Ti</v>
       </c>
-      <c r="Z3" s="75">
+      <c r="Z3" s="72">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</f>
         <v>11900</v>
       </c>
-      <c r="AA3" s="75">
+      <c r="AA3" s="72">
         <f>(Table1[[#This Row],[Tp]]-AN3)*3600</f>
         <v>25488</v>
       </c>
-      <c r="AB3" s="77">
+      <c r="AB3" s="74">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>2908</v>
-      </c>
-      <c r="AC3" s="77">
+        <v>14544</v>
+      </c>
+      <c r="AC3" s="74">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>465</v>
-      </c>
-      <c r="AD3" s="77">
+        <v>2790</v>
+      </c>
+      <c r="AD3" s="74">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>266.66666666666669</v>
-      </c>
-      <c r="AE3" s="75">
+        <v>1600</v>
+      </c>
+      <c r="AE3" s="72">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AF3" s="76">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="73">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
         <v>0.49942773047075123</v>
       </c>
-      <c r="AG3" s="76">
+      <c r="AG3" s="73">
         <f>(('Reach Propertise'!$F3-'Reach Propertise'!$R3)/'Reach Propertise'!$F3)</f>
         <v>0.56509686483968735</v>
       </c>
-      <c r="AH3" s="76" t="e">
+      <c r="AH3" s="73" t="e">
         <f>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI3" s="78">
+      <c r="AI3" s="75">
         <f>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</f>
         <v>22.689655172413794</v>
       </c>
-      <c r="AJ3" s="75">
+      <c r="AJ3" s="72">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>11449.199999999999</v>
-      </c>
-      <c r="AK3" s="75">
+        <v>1908.1999999999998</v>
+      </c>
+      <c r="AK3" s="72">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
         <v>7.08</v>
       </c>
-      <c r="AL3" s="75">
+      <c r="AL3" s="72">
         <v>1</v>
       </c>
-      <c r="AM3" s="75">
+      <c r="AM3" s="72">
         <f>'Reach Propertise'!$F3</f>
         <v>8.08</v>
       </c>
-      <c r="AN3" s="75">
+      <c r="AN3" s="72">
         <v>1</v>
       </c>
-      <c r="AO3" s="79">
+      <c r="AO3" s="76">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>465</v>
-      </c>
-      <c r="AP3" s="79">
+        <v>2790</v>
+      </c>
+      <c r="AP3" s="76">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:42" s="72" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="68">
+    <row r="4" spans="1:42" s="69" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="65">
         <f t="shared" ref="B4:B8" si="1">C3</f>
         <v>27900</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="65">
         <v>36500</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="66">
         <v>174.7</v>
       </c>
-      <c r="E4" s="70">
+      <c r="E4" s="67">
         <v>9.09</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="68">
         <v>10.33</v>
       </c>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69">
+      <c r="G4" s="65"/>
+      <c r="H4" s="66">
         <v>174.7</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="72">
+      <c r="I4" s="65"/>
+      <c r="J4" s="69">
         <v>6.0999999999999997E-4</v>
       </c>
-      <c r="K4" s="69">
+      <c r="K4" s="66">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="66">
         <v>74.099999999999994</v>
       </c>
-      <c r="M4" s="69">
+      <c r="M4" s="66">
         <v>7.2880999999999996E-3</v>
       </c>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="81">
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="78">
         <f>Table1[Q '[m3/sec']]/(Table1[depth '[meters']]*Table1[width '[meters']])</f>
         <v>1.0250542744821922</v>
       </c>
-      <c r="R4" s="75">
+      <c r="R4" s="72">
         <f>(Table1[[#This Row],[Reach Length '[meters']]]/(Table1[[#This Row],[Q '[m3/sec']]]/(Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]])))/3600</f>
         <v>2.330499904598359</v>
       </c>
-      <c r="S4" s="75">
+      <c r="S4" s="72">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
         <v>0.98149940841131544</v>
       </c>
-      <c r="T4" s="75">
+      <c r="T4" s="72">
         <v>1</v>
       </c>
-      <c r="U4" s="75">
+      <c r="U4" s="72">
         <v>0</v>
       </c>
-      <c r="V4" s="75">
+      <c r="V4" s="72">
         <v>0</v>
       </c>
-      <c r="W4" s="82">
+      <c r="W4" s="79">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>36.5</v>
       </c>
-      <c r="X4" s="69">
+      <c r="X4" s="66">
         <v>7.2880999999999996E-3</v>
       </c>
-      <c r="Y4" s="76" t="str">
+      <c r="Y4" s="73" t="str">
         <f>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</f>
         <v>use Ti</v>
       </c>
-      <c r="Z4" s="75">
+      <c r="Z4" s="72">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</f>
         <v>8600</v>
       </c>
-      <c r="AA4" s="82">
+      <c r="AA4" s="79">
         <f>(Table1[[#This Row],[Tp]]-AN4)*3600</f>
         <v>37188</v>
       </c>
-      <c r="AB4" s="83">
+      <c r="AB4" s="80">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>3718</v>
-      </c>
-      <c r="AC4" s="83">
+        <v>18594</v>
+      </c>
+      <c r="AC4" s="80">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>608.33333333333337</v>
-      </c>
-      <c r="AD4" s="83">
+        <v>3650</v>
+      </c>
+      <c r="AD4" s="80">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>465</v>
-      </c>
-      <c r="AE4" s="75">
+        <v>2790</v>
+      </c>
+      <c r="AE4" s="72">
         <f>Delta_T__seconds</f>
-        <v>10</v>
-      </c>
-      <c r="AF4" s="76">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="73">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
         <v>0.74361937243142373</v>
       </c>
-      <c r="AG4" s="76">
+      <c r="AG4" s="73">
         <f>(('Reach Propertise'!$F4-'Reach Propertise'!$R4)/'Reach Propertise'!$F4)</f>
         <v>0.77439497535349866</v>
       </c>
-      <c r="AH4" s="76" t="e">
+      <c r="AH4" s="73" t="e">
         <f>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI4" s="78">
+      <c r="AI4" s="75">
         <f>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</f>
         <v>32.217391304347828</v>
       </c>
-      <c r="AJ4" s="82">
+      <c r="AJ4" s="79">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>10225.799999999999</v>
-      </c>
-      <c r="AK4" s="82">
+        <v>1704.2999999999997</v>
+      </c>
+      <c r="AK4" s="79">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
         <v>10.33</v>
       </c>
-      <c r="AL4" s="75"/>
-      <c r="AM4" s="75">
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="72">
         <f>'Reach Propertise'!$F4</f>
         <v>10.33</v>
       </c>
-      <c r="AN4" s="75"/>
-      <c r="AO4" s="79">
+      <c r="AN4" s="72"/>
+      <c r="AO4" s="76">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>608</v>
-      </c>
-      <c r="AP4" s="79">
+        <v>3650</v>
+      </c>
+      <c r="AP4" s="76">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:42" s="72" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="68">
+    <row r="5" spans="1:42" s="69" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="65">
         <f t="shared" si="1"/>
         <v>36500</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="65">
         <v>49600</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="66">
         <v>169.9</v>
       </c>
-      <c r="E5" s="70">
+      <c r="E5" s="67">
         <v>13.03</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F5" s="68">
         <v>14.8</v>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="69">
+      <c r="G5" s="65"/>
+      <c r="H5" s="66">
         <v>169.9</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="72">
+      <c r="I5" s="65"/>
+      <c r="J5" s="69">
         <v>3.1E-4</v>
       </c>
-      <c r="K5" s="69">
+      <c r="K5" s="66">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L5" s="69">
+      <c r="L5" s="66">
         <v>77.7</v>
       </c>
-      <c r="M5" s="69">
+      <c r="M5" s="66">
         <v>5.7676999999999997E-3</v>
       </c>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="81">
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="78">
         <f>Table1[Q '[m3/sec']]/(Table1[depth '[meters']]*Table1[width '[meters']])</f>
         <v>0.95070225505008132</v>
       </c>
-      <c r="R5" s="75">
+      <c r="R5" s="72">
         <f>(Table1[[#This Row],[Reach Length '[meters']]]/(Table1[[#This Row],[Q '[m3/sec']]]/(Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]])))/3600</f>
         <v>3.8275799489896007</v>
       </c>
-      <c r="S5" s="75">
+      <c r="S5" s="72">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
         <v>0.93093093093093093</v>
       </c>
-      <c r="T5" s="75">
+      <c r="T5" s="72">
         <v>1</v>
       </c>
-      <c r="U5" s="75">
+      <c r="U5" s="72">
         <v>0</v>
       </c>
-      <c r="V5" s="75">
+      <c r="V5" s="72">
         <v>0</v>
       </c>
-      <c r="W5" s="82">
+      <c r="W5" s="79">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>49.6</v>
       </c>
-      <c r="X5" s="69">
+      <c r="X5" s="66">
         <v>5.7676999999999997E-3</v>
       </c>
-      <c r="Y5" s="76" t="str">
+      <c r="Y5" s="73" t="str">
         <f>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</f>
         <v>use Ti</v>
       </c>
-      <c r="Z5" s="75">
+      <c r="Z5" s="72">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</f>
         <v>13100</v>
       </c>
-      <c r="AA5" s="82">
+      <c r="AA5" s="79">
         <f>(Table1[[#This Row],[Tp]]-AN5)*3600</f>
         <v>53280</v>
       </c>
-      <c r="AB5" s="83">
+      <c r="AB5" s="80">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>5328</v>
-      </c>
-      <c r="AC5" s="83">
+        <v>26640</v>
+      </c>
+      <c r="AC5" s="80">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>826.66666666666663</v>
-      </c>
-      <c r="AD5" s="83">
+        <v>4960</v>
+      </c>
+      <c r="AD5" s="80">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>608.33333333333337</v>
-      </c>
-      <c r="AE5" s="75">
+        <v>3650</v>
+      </c>
+      <c r="AE5" s="72">
         <f>Delta_T__seconds</f>
-        <v>10</v>
-      </c>
-      <c r="AF5" s="76">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="73">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
         <v>0.70624866086035298</v>
       </c>
-      <c r="AG5" s="76">
+      <c r="AG5" s="73">
         <f>(('Reach Propertise'!$F5-'Reach Propertise'!$R5)/'Reach Propertise'!$F5)</f>
         <v>0.74137973317637829</v>
       </c>
-      <c r="AH5" s="76" t="e">
+      <c r="AH5" s="73" t="e">
         <f>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI5" s="78">
+      <c r="AI5" s="75">
         <f>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</f>
         <v>33.782608695652179</v>
       </c>
-      <c r="AJ5" s="82">
+      <c r="AJ5" s="79">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>10722.599999999999</v>
-      </c>
-      <c r="AK5" s="82">
+        <v>1787.1</v>
+      </c>
+      <c r="AK5" s="79">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
         <v>14.8</v>
       </c>
-      <c r="AL5" s="75"/>
-      <c r="AM5" s="75">
+      <c r="AL5" s="72"/>
+      <c r="AM5" s="72">
         <f>'Reach Propertise'!$F5</f>
         <v>14.8</v>
       </c>
-      <c r="AN5" s="75"/>
-      <c r="AO5" s="79">
+      <c r="AN5" s="72"/>
+      <c r="AO5" s="76">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>826</v>
-      </c>
-      <c r="AP5" s="79">
+        <v>4960</v>
+      </c>
+      <c r="AP5" s="76">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:42" s="72" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="68">
+    <row r="6" spans="1:42" s="69" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="65">
         <f t="shared" si="1"/>
         <v>49600</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="65">
         <v>57100</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="66">
         <v>107.6</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="67">
         <v>17.7</v>
       </c>
-      <c r="F6" s="71">
+      <c r="F6" s="68">
         <v>19.829999999999998</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="69">
+      <c r="G6" s="65"/>
+      <c r="H6" s="66">
         <v>107.6</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="72">
+      <c r="I6" s="65"/>
+      <c r="J6" s="69">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="66">
         <v>2.4</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L6" s="66">
         <v>84.7</v>
       </c>
-      <c r="M6" s="69">
+      <c r="M6" s="66">
         <v>4.3641000000000001E-3</v>
       </c>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="81">
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="78">
         <f>Table1[Q '[m3/sec']]/(Table1[depth '[meters']]*Table1[width '[meters']])</f>
         <v>0.52931916568280202</v>
       </c>
-      <c r="R6" s="75">
+      <c r="R6" s="72">
         <f>(Table1[[#This Row],[Reach Length '[meters']]]/(Table1[[#This Row],[Q '[m3/sec']]]/(Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]])))/3600</f>
         <v>3.9358736059479558</v>
       </c>
-      <c r="S6" s="75">
+      <c r="S6" s="72">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
         <v>0.79985431725219924</v>
       </c>
-      <c r="T6" s="75">
+      <c r="T6" s="72">
         <v>1</v>
       </c>
-      <c r="U6" s="75">
+      <c r="U6" s="72">
         <v>0</v>
       </c>
-      <c r="V6" s="75">
+      <c r="V6" s="72">
         <v>0</v>
       </c>
-      <c r="W6" s="82">
+      <c r="W6" s="79">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>57.1</v>
       </c>
-      <c r="X6" s="69">
+      <c r="X6" s="66">
         <v>4.3641000000000001E-3</v>
       </c>
-      <c r="Y6" s="76" t="str">
+      <c r="Y6" s="73" t="str">
         <f>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</f>
         <v>use Ti</v>
       </c>
-      <c r="Z6" s="75">
+      <c r="Z6" s="72">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</f>
         <v>7500</v>
       </c>
-      <c r="AA6" s="82">
+      <c r="AA6" s="79">
         <f>(Table1[[#This Row],[Tp]]-AN6)*3600</f>
         <v>71388</v>
       </c>
-      <c r="AB6" s="83">
+      <c r="AB6" s="80">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>7138</v>
-      </c>
-      <c r="AC6" s="83">
+        <v>35694</v>
+      </c>
+      <c r="AC6" s="80">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>951.66666666666663</v>
-      </c>
-      <c r="AD6" s="83">
+        <v>5710</v>
+      </c>
+      <c r="AD6" s="80">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>826.66666666666663</v>
-      </c>
-      <c r="AE6" s="75">
+        <v>4960</v>
+      </c>
+      <c r="AE6" s="72">
         <f>Delta_T__seconds</f>
-        <v>10</v>
-      </c>
-      <c r="AF6" s="76">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="73">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
         <v>0.77763425955096299</v>
       </c>
-      <c r="AG6" s="76">
+      <c r="AG6" s="73">
         <f>(('Reach Propertise'!$F6-'Reach Propertise'!$R6)/'Reach Propertise'!$F6)</f>
         <v>0.80151923318467189</v>
       </c>
-      <c r="AH6" s="76" t="e">
+      <c r="AH6" s="73" t="e">
         <f>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI6" s="78">
+      <c r="AI6" s="75">
         <f>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</f>
         <v>35.291666666666671</v>
       </c>
-      <c r="AJ6" s="82">
+      <c r="AJ6" s="79">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>12196.8</v>
-      </c>
-      <c r="AK6" s="82">
+        <v>2032.8</v>
+      </c>
+      <c r="AK6" s="79">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
         <v>19.829999999999998</v>
       </c>
-      <c r="AL6" s="75"/>
-      <c r="AM6" s="75">
+      <c r="AL6" s="72"/>
+      <c r="AM6" s="72">
         <f>'Reach Propertise'!$F6</f>
         <v>19.829999999999998</v>
       </c>
-      <c r="AN6" s="75"/>
-      <c r="AO6" s="79">
+      <c r="AN6" s="72"/>
+      <c r="AO6" s="76">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>951</v>
-      </c>
-      <c r="AP6" s="79">
+        <v>5710</v>
+      </c>
+      <c r="AP6" s="76">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:42" s="72" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="68">
+    <row r="7" spans="1:42" s="69" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="65">
         <f t="shared" si="1"/>
         <v>57100</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="65">
         <v>60500</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="66">
         <v>107.6</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="67">
         <v>19.03</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="68">
         <v>21.5</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="69">
+      <c r="G7" s="65"/>
+      <c r="H7" s="66">
         <v>107.6</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="72">
+      <c r="I7" s="65"/>
+      <c r="J7" s="69">
         <v>4.4000000000000007E-4</v>
       </c>
-      <c r="K7" s="69">
+      <c r="K7" s="66">
         <v>2.4</v>
       </c>
-      <c r="L7" s="69">
+      <c r="L7" s="66">
         <v>84.7</v>
       </c>
-      <c r="M7" s="69">
+      <c r="M7" s="66">
         <v>3.885E-3</v>
       </c>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="81">
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="78">
         <f>Table1[Q '[m3/sec']]/(Table1[depth '[meters']]*Table1[width '[meters']])</f>
         <v>0.52931916568280202</v>
       </c>
-      <c r="R7" s="75">
+      <c r="R7" s="72">
         <f>(Table1[[#This Row],[Reach Length '[meters']]]/(Table1[[#This Row],[Q '[m3/sec']]]/(Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]])))/3600</f>
         <v>1.7842627013630732</v>
       </c>
-      <c r="S7" s="75">
+      <c r="S7" s="72">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
         <v>0.78165374677002586</v>
       </c>
-      <c r="T7" s="75">
+      <c r="T7" s="72">
         <v>1</v>
       </c>
-      <c r="U7" s="75">
+      <c r="U7" s="72">
         <v>0</v>
       </c>
-      <c r="V7" s="75">
+      <c r="V7" s="72">
         <v>0</v>
       </c>
-      <c r="W7" s="82">
+      <c r="W7" s="79">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>60.5</v>
       </c>
-      <c r="X7" s="69">
+      <c r="X7" s="66">
         <v>3.885E-3</v>
       </c>
-      <c r="Y7" s="76" t="str">
+      <c r="Y7" s="73" t="str">
         <f>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</f>
         <v>use Ti</v>
       </c>
-      <c r="Z7" s="75">
+      <c r="Z7" s="72">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</f>
         <v>3400</v>
       </c>
-      <c r="AA7" s="82">
+      <c r="AA7" s="79">
         <f>(Table1[[#This Row],[Tp]]-AN7)*3600</f>
         <v>77400</v>
       </c>
-      <c r="AB7" s="83">
+      <c r="AB7" s="80">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>7740</v>
-      </c>
-      <c r="AC7" s="83">
+        <v>38700</v>
+      </c>
+      <c r="AC7" s="80">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>1008.3333333333334</v>
-      </c>
-      <c r="AD7" s="83">
+        <v>6050</v>
+      </c>
+      <c r="AD7" s="80">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>951.66666666666663</v>
-      </c>
-      <c r="AE7" s="75">
+        <v>5710</v>
+      </c>
+      <c r="AE7" s="72">
         <f>Delta_T__seconds</f>
-        <v>10</v>
-      </c>
-      <c r="AF7" s="76">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="73">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
         <v>0.90623947969715857</v>
       </c>
-      <c r="AG7" s="76">
+      <c r="AG7" s="73">
         <f>(('Reach Propertise'!$F7-'Reach Propertise'!$R7)/'Reach Propertise'!$F7)</f>
         <v>0.9170110371459036</v>
       </c>
-      <c r="AH7" s="76" t="e">
+      <c r="AH7" s="73" t="e">
         <f>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI7" s="78">
+      <c r="AI7" s="75">
         <f>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</f>
         <v>35.291666666666671</v>
       </c>
-      <c r="AJ7" s="82">
+      <c r="AJ7" s="79">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>12196.8</v>
-      </c>
-      <c r="AK7" s="82">
+        <v>2032.8</v>
+      </c>
+      <c r="AK7" s="79">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
         <v>21.5</v>
       </c>
-      <c r="AL7" s="75"/>
-      <c r="AM7" s="75">
+      <c r="AL7" s="72"/>
+      <c r="AM7" s="72">
         <f>'Reach Propertise'!$F7</f>
         <v>21.5</v>
       </c>
-      <c r="AN7" s="75"/>
-      <c r="AO7" s="79">
+      <c r="AN7" s="72"/>
+      <c r="AO7" s="76">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>1008</v>
-      </c>
-      <c r="AP7" s="79">
+        <v>6050</v>
+      </c>
+      <c r="AP7" s="76">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:42" s="72" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="68">
+    <row r="8" spans="1:42" s="69" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="65">
         <f t="shared" si="1"/>
         <v>60500</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="65">
         <v>76600</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="66">
         <v>107.6</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="67">
         <v>24.75</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="68">
         <v>28.82</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69">
+      <c r="G8" s="65"/>
+      <c r="H8" s="66">
         <v>107.6</v>
       </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="72">
+      <c r="I8" s="65"/>
+      <c r="J8" s="69">
         <v>9.8999999999999999E-4</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="66">
         <v>2</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="66">
         <v>75.599999999999994</v>
       </c>
-      <c r="M8" s="69">
+      <c r="M8" s="66">
         <v>3.1906999999999999E-3</v>
       </c>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="81">
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="78">
         <f>Table1[Q '[m3/sec']]/(Table1[depth '[meters']]*Table1[width '[meters']])</f>
         <v>0.71164021164021163</v>
       </c>
-      <c r="R8" s="75">
+      <c r="R8" s="72">
         <f>(Table1[[#This Row],[Reach Length '[meters']]]/(Table1[[#This Row],[Q '[m3/sec']]]/(Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]])))/3600</f>
         <v>6.2843866171003722</v>
       </c>
-      <c r="S8" s="75">
+      <c r="S8" s="72">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
         <v>0.73829902074176879</v>
       </c>
-      <c r="T8" s="75">
+      <c r="T8" s="72">
         <v>1</v>
       </c>
-      <c r="U8" s="75">
+      <c r="U8" s="72">
         <v>0</v>
       </c>
-      <c r="V8" s="75">
+      <c r="V8" s="72">
         <v>0</v>
       </c>
-      <c r="W8" s="82">
+      <c r="W8" s="79">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>76.599999999999994</v>
       </c>
-      <c r="X8" s="69">
+      <c r="X8" s="66">
         <v>3.1906999999999999E-3</v>
       </c>
-      <c r="Y8" s="76" t="str">
+      <c r="Y8" s="73" t="str">
         <f>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</f>
         <v>use Ti</v>
       </c>
-      <c r="Z8" s="75">
+      <c r="Z8" s="72">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</f>
         <v>16100</v>
       </c>
-      <c r="AA8" s="82">
+      <c r="AA8" s="79">
         <f>(Table1[[#This Row],[Tp]]-AN8)*3600</f>
         <v>103752</v>
       </c>
-      <c r="AB8" s="83">
+      <c r="AB8" s="80">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>10375</v>
-      </c>
-      <c r="AC8" s="83">
+        <v>51876</v>
+      </c>
+      <c r="AC8" s="80">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>1276.6666666666667</v>
-      </c>
-      <c r="AD8" s="83">
+        <v>7660</v>
+      </c>
+      <c r="AD8" s="80">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>1008.3333333333334</v>
-      </c>
-      <c r="AE8" s="75">
+        <v>6050</v>
+      </c>
+      <c r="AE8" s="72">
         <f>Delta_T__seconds</f>
-        <v>10</v>
-      </c>
-      <c r="AF8" s="76">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="73">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
         <v>0.74608538920806566</v>
       </c>
-      <c r="AG8" s="76">
+      <c r="AG8" s="73">
         <f>(('Reach Propertise'!$F8-'Reach Propertise'!$R8)/'Reach Propertise'!$F8)</f>
         <v>0.78194355943440752</v>
       </c>
-      <c r="AH8" s="76" t="e">
+      <c r="AH8" s="73" t="e">
         <f>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI8" s="78">
+      <c r="AI8" s="75">
         <f>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</f>
         <v>37.799999999999997</v>
       </c>
-      <c r="AJ8" s="82">
+      <c r="AJ8" s="79">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>9072</v>
-      </c>
-      <c r="AK8" s="82">
+        <v>1512</v>
+      </c>
+      <c r="AK8" s="79">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
         <v>28.82</v>
       </c>
-      <c r="AL8" s="75"/>
-      <c r="AM8" s="75">
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="72">
         <f>'Reach Propertise'!$F8</f>
         <v>28.82</v>
       </c>
-      <c r="AN8" s="75"/>
-      <c r="AO8" s="79">
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="76">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>1276</v>
-      </c>
-      <c r="AP8" s="79">
+        <v>7660</v>
+      </c>
+      <c r="AP8" s="76">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
@@ -8997,41 +8987,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="49" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9066,80 +9056,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="16" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="50" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="53">
+      <c r="A2" s="51">
         <v>500</v>
       </c>
       <c r="B2" s="13">
         <v>7814</v>
       </c>
-      <c r="C2" s="54">
+      <c r="C2" s="52">
         <v>0</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="51">
         <v>100</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
       <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I4" s="18"/>
@@ -9180,7 +9170,7 @@
       <c r="H2">
         <v>5</v>
       </c>
-      <c r="P2" s="59" t="s">
+      <c r="P2" s="57" t="s">
         <v>105</v>
       </c>
     </row>
@@ -9191,7 +9181,7 @@
       <c r="H3">
         <v>10</v>
       </c>
-      <c r="P3" s="60" t="s">
+      <c r="P3" s="58" t="s">
         <v>85</v>
       </c>
     </row>
@@ -9202,7 +9192,7 @@
       <c r="H4">
         <v>25</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="58" t="s">
         <v>86</v>
       </c>
     </row>
@@ -9213,7 +9203,7 @@
       <c r="H5">
         <v>50</v>
       </c>
-      <c r="P5" s="60" t="s">
+      <c r="P5" s="58" t="s">
         <v>87</v>
       </c>
     </row>
@@ -9224,7 +9214,7 @@
       <c r="H6">
         <v>100</v>
       </c>
-      <c r="P6" s="60" t="s">
+      <c r="P6" s="58" t="s">
         <v>88</v>
       </c>
     </row>
@@ -9235,7 +9225,7 @@
       <c r="H7">
         <v>150</v>
       </c>
-      <c r="P7" s="60" t="s">
+      <c r="P7" s="58" t="s">
         <v>89</v>
       </c>
     </row>
@@ -9246,7 +9236,7 @@
       <c r="H8">
         <v>200</v>
       </c>
-      <c r="P8" s="60" t="s">
+      <c r="P8" s="58" t="s">
         <v>90</v>
       </c>
     </row>
@@ -9257,7 +9247,7 @@
       <c r="H9">
         <v>250</v>
       </c>
-      <c r="P9" s="60" t="s">
+      <c r="P9" s="58" t="s">
         <v>91</v>
       </c>
     </row>
@@ -9268,7 +9258,7 @@
       <c r="H10">
         <v>300</v>
       </c>
-      <c r="P10" s="60" t="s">
+      <c r="P10" s="58" t="s">
         <v>92</v>
       </c>
     </row>
@@ -9276,7 +9266,7 @@
       <c r="H11">
         <v>350</v>
       </c>
-      <c r="P11" s="60" t="s">
+      <c r="P11" s="58" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9284,7 +9274,7 @@
       <c r="H12">
         <v>400</v>
       </c>
-      <c r="P12" s="61" t="s">
+      <c r="P12" s="59" t="s">
         <v>103</v>
       </c>
     </row>
@@ -9292,7 +9282,7 @@
       <c r="H13">
         <v>450</v>
       </c>
-      <c r="P13" s="60" t="s">
+      <c r="P13" s="58" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9300,7 +9290,7 @@
       <c r="H14">
         <v>500</v>
       </c>
-      <c r="P14" s="60" t="s">
+      <c r="P14" s="58" t="s">
         <v>95</v>
       </c>
     </row>
@@ -9308,7 +9298,7 @@
       <c r="H15">
         <v>550</v>
       </c>
-      <c r="P15" s="60" t="s">
+      <c r="P15" s="58" t="s">
         <v>96</v>
       </c>
     </row>
@@ -9316,7 +9306,7 @@
       <c r="H16">
         <v>600</v>
       </c>
-      <c r="P16" s="60" t="s">
+      <c r="P16" s="58" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9324,7 +9314,7 @@
       <c r="H17">
         <v>650</v>
       </c>
-      <c r="P17" s="60" t="s">
+      <c r="P17" s="58" t="s">
         <v>98</v>
       </c>
     </row>
@@ -9332,7 +9322,7 @@
       <c r="H18">
         <v>700</v>
       </c>
-      <c r="P18" s="60" t="s">
+      <c r="P18" s="58" t="s">
         <v>99</v>
       </c>
     </row>
@@ -9340,7 +9330,7 @@
       <c r="H19">
         <v>750</v>
       </c>
-      <c r="P19" s="60" t="s">
+      <c r="P19" s="58" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9348,7 +9338,7 @@
       <c r="H20">
         <v>800</v>
       </c>
-      <c r="P20" s="60" t="s">
+      <c r="P20" s="58" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9356,7 +9346,7 @@
       <c r="H21">
         <v>900</v>
       </c>
-      <c r="P21" s="60" t="s">
+      <c r="P21" s="58" t="s">
         <v>102</v>
       </c>
     </row>
@@ -9364,7 +9354,7 @@
       <c r="H22">
         <v>1000</v>
       </c>
-      <c r="P22" s="62" t="s">
+      <c r="P22" s="60" t="s">
         <v>104</v>
       </c>
     </row>
@@ -9372,16 +9362,16 @@
       <c r="H23">
         <v>1250</v>
       </c>
-      <c r="P23" s="62"/>
+      <c r="P23" s="60"/>
     </row>
     <row r="24" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H24">
         <v>1500</v>
       </c>
-      <c r="P24" s="63"/>
+      <c r="P24" s="61"/>
     </row>
     <row r="25" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="P25" s="64"/>
+      <c r="P25" s="62"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9411,846 +9401,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" s="65" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="S1" s="65" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1.4056839659935745</v>
-      </c>
-      <c r="B2">
-        <v>1.7777987324569243E+21</v>
-      </c>
-      <c r="C2">
-        <v>1.1910253880017179</v>
-      </c>
-      <c r="D2">
-        <v>215.74304580428253</v>
-      </c>
-      <c r="E2">
-        <v>636633169.41425276</v>
-      </c>
-      <c r="F2">
-        <v>710207759.13756084</v>
-      </c>
-      <c r="G2">
-        <v>86.695898379278091</v>
-      </c>
-      <c r="H2">
-        <v>241.61687931721721</v>
-      </c>
-      <c r="I2">
-        <v>59.882331932939017</v>
-      </c>
-      <c r="J2">
-        <v>0.85293722549647311</v>
-      </c>
-      <c r="K2">
-        <v>256.6855803108611</v>
-      </c>
-      <c r="L2">
-        <v>222.9117577645826</v>
-      </c>
-      <c r="M2">
-        <v>1505.5707160759537</v>
-      </c>
-      <c r="N2">
-        <v>205.15695157619439</v>
-      </c>
-      <c r="O2">
-        <v>65535</v>
-      </c>
-      <c r="P2">
-        <v>178.95887144906322</v>
-      </c>
-      <c r="Q2">
-        <v>19.341470625919751</v>
-      </c>
-      <c r="R2">
-        <v>160.44177672661223</v>
-      </c>
-      <c r="S2">
-        <v>89.646679460255967</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.4713691473545374</v>
-      </c>
-      <c r="B3">
-        <v>5.5364948687776123E+18</v>
-      </c>
-      <c r="C3">
-        <v>1.8855904903388536</v>
-      </c>
-      <c r="D3">
-        <v>176.58678673687348</v>
-      </c>
-      <c r="E3">
-        <v>1011618.9334947295</v>
-      </c>
-      <c r="F3">
-        <v>1007128.7654989791</v>
-      </c>
-      <c r="G3">
-        <v>53.633827529238019</v>
-      </c>
-      <c r="H3">
-        <v>281.65997787347629</v>
-      </c>
-      <c r="I3">
-        <v>52.21783688418116</v>
-      </c>
-      <c r="J3">
-        <v>0.41483037552582874</v>
-      </c>
-      <c r="K3">
-        <v>278.86994602903144</v>
-      </c>
-      <c r="L3">
-        <v>327.85905290862144</v>
-      </c>
-      <c r="M3">
-        <v>2368.1055163968986</v>
-      </c>
-      <c r="N3">
-        <v>203.85363602237823</v>
-      </c>
-      <c r="O3">
-        <v>65535</v>
-      </c>
-      <c r="P3">
-        <v>183.54174000437905</v>
-      </c>
-      <c r="Q3">
-        <v>16.315148049889046</v>
-      </c>
-      <c r="R3">
-        <v>171.96639448995685</v>
-      </c>
-      <c r="S3">
-        <v>85.372678802088956</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1.552628688047061</v>
-      </c>
-      <c r="B4">
-        <v>1.6794350529626164E+21</v>
-      </c>
-      <c r="C4">
-        <v>1.1501667135782159</v>
-      </c>
-      <c r="D4">
-        <v>222.22671803924302</v>
-      </c>
-      <c r="E4">
-        <v>691017530.79728186</v>
-      </c>
-      <c r="F4">
-        <v>784450109.68819332</v>
-      </c>
-      <c r="G4">
-        <v>95.758749630850659</v>
-      </c>
-      <c r="H4">
-        <v>253.89747729682549</v>
-      </c>
-      <c r="I4">
-        <v>63.428778867962194</v>
-      </c>
-      <c r="J4">
-        <v>0.94209995806066038</v>
-      </c>
-      <c r="K4">
-        <v>270.69891423783127</v>
-      </c>
-      <c r="L4">
-        <v>231.32585294315339</v>
-      </c>
-      <c r="M4">
-        <v>1510.6120716180671</v>
-      </c>
-      <c r="N4">
-        <v>216.92812986572778</v>
-      </c>
-      <c r="O4">
-        <v>65535</v>
-      </c>
-      <c r="P4">
-        <v>191.8876203240313</v>
-      </c>
-      <c r="Q4">
-        <v>21.266625273635601</v>
-      </c>
-      <c r="R4">
-        <v>166.5717436779895</v>
-      </c>
-      <c r="S4">
-        <v>95.204805647050293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.1083384243234211</v>
-      </c>
-      <c r="B5">
-        <v>2.7545064009176418E+22</v>
-      </c>
-      <c r="C5">
-        <v>1.5282113804069806</v>
-      </c>
-      <c r="D5">
-        <v>307.9299610009611</v>
-      </c>
-      <c r="E5">
-        <v>1682606454.9576898</v>
-      </c>
-      <c r="F5">
-        <v>1657095339.8755083</v>
-      </c>
-      <c r="G5">
-        <v>73.398547603888389</v>
-      </c>
-      <c r="H5">
-        <v>280.08150687824156</v>
-      </c>
-      <c r="I5">
-        <v>67.730136304794556</v>
-      </c>
-      <c r="J5">
-        <v>0.7051874564705507</v>
-      </c>
-      <c r="K5">
-        <v>288.28697905440771</v>
-      </c>
-      <c r="L5" s="19">
-        <v>277.89525879021909</v>
-      </c>
-      <c r="M5">
-        <v>2423.1657287039388</v>
-      </c>
-      <c r="N5">
-        <v>231.19457944463582</v>
-      </c>
-      <c r="O5">
-        <v>65535</v>
-      </c>
-      <c r="P5">
-        <v>179.52655394174778</v>
-      </c>
-      <c r="Q5">
-        <v>16.284344153497617</v>
-      </c>
-      <c r="R5">
-        <v>167.36945635393602</v>
-      </c>
-      <c r="S5">
-        <v>98.110825331970574</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.30043549763295735</v>
-      </c>
-      <c r="B6">
-        <v>1.1877277624004547E+25</v>
-      </c>
-      <c r="C6">
-        <v>5.2742998787049062</v>
-      </c>
-      <c r="D6">
-        <v>996.51706621794187</v>
-      </c>
-      <c r="E6">
-        <v>2360924570.8724823</v>
-      </c>
-      <c r="F6">
-        <v>1278492149.5263391</v>
-      </c>
-      <c r="G6">
-        <v>21.243926989997522</v>
-      </c>
-      <c r="H6">
-        <v>430.50022335372313</v>
-      </c>
-      <c r="I6">
-        <v>81.645276946261149</v>
-      </c>
-      <c r="J6">
-        <v>0.18631997622810625</v>
-      </c>
-      <c r="K6">
-        <v>320.7254768273292</v>
-      </c>
-      <c r="L6">
-        <v>687.37192766111752</v>
-      </c>
-      <c r="M6">
-        <v>18102.239322756344</v>
-      </c>
-      <c r="N6">
-        <v>291.50687943110427</v>
-      </c>
-      <c r="O6">
-        <v>65535</v>
-      </c>
-      <c r="P6" s="31">
-        <v>138.15226738619569</v>
-      </c>
-      <c r="Q6" s="31">
-        <v>5.3170305457334655</v>
-      </c>
-      <c r="R6" s="31">
-        <v>168.62001399386003</v>
-      </c>
-      <c r="S6" s="31">
-        <v>106.711199464503</v>
-      </c>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1.409167392908018</v>
-      </c>
-      <c r="B7">
-        <v>2.5004987966980388E+24</v>
-      </c>
-      <c r="C7">
-        <v>1.0988970283150705</v>
-      </c>
-      <c r="D7">
-        <v>202.89925002223958</v>
-      </c>
-      <c r="E7">
-        <v>5054632001.2529783</v>
-      </c>
-      <c r="F7">
-        <v>5996659726.9488735</v>
-      </c>
-      <c r="G7">
-        <v>99.642849954422701</v>
-      </c>
-      <c r="H7">
-        <v>214.99083921480675</v>
-      </c>
-      <c r="I7">
-        <v>58.303284764809796</v>
-      </c>
-      <c r="J7">
-        <v>0.87391815287023633</v>
-      </c>
-      <c r="K7">
-        <v>233.75810837828539</v>
-      </c>
-      <c r="L7">
-        <v>183.46265952740421</v>
-      </c>
-      <c r="M7">
-        <v>1140.0408369288211</v>
-      </c>
-      <c r="N7">
-        <v>192.46438404563074</v>
-      </c>
-      <c r="O7">
-        <v>2.7954333796177884E+178</v>
-      </c>
-      <c r="P7" s="31">
-        <v>170.82157063232501</v>
-      </c>
-      <c r="Q7" s="31">
-        <v>20.338713520745497</v>
-      </c>
-      <c r="R7" s="31">
-        <v>162.94320298506472</v>
-      </c>
-      <c r="S7" s="31">
-        <v>85.716128010718748</v>
-      </c>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1.610853895680719</v>
-      </c>
-      <c r="B8">
-        <v>3.868201152606407E+21</v>
-      </c>
-      <c r="C8">
-        <v>0.63054896753778478</v>
-      </c>
-      <c r="D8">
-        <v>126.15352860967488</v>
-      </c>
-      <c r="E8">
-        <v>27279613594.576786</v>
-      </c>
-      <c r="F8">
-        <v>39001970084.143196</v>
-      </c>
-      <c r="G8">
-        <v>126.26097939467532</v>
-      </c>
-      <c r="H8">
-        <v>150.51659702357361</v>
-      </c>
-      <c r="I8">
-        <v>46.567592879254612</v>
-      </c>
-      <c r="J8">
-        <v>1.4118740510624852</v>
-      </c>
-      <c r="K8">
-        <v>170.12100715575511</v>
-      </c>
-      <c r="L8">
-        <v>111.04812869136812</v>
-      </c>
-      <c r="M8">
-        <v>491.24657160964426</v>
-      </c>
-      <c r="N8">
-        <v>147.40072477818956</v>
-      </c>
-      <c r="O8">
-        <v>36.069171254264894</v>
-      </c>
-      <c r="P8" s="31">
-        <v>148.27838876461212</v>
-      </c>
-      <c r="Q8" s="31">
-        <v>23.239318384723983</v>
-      </c>
-      <c r="R8" s="31">
-        <v>131.83868176335167</v>
-      </c>
-      <c r="S8" s="31">
-        <v>68.970232752916189</v>
-      </c>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-    </row>
-    <row r="13" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="C13" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>0.68015664268852827</v>
-      </c>
-      <c r="D14">
-        <v>28625.050200190482</v>
-      </c>
-      <c r="E14">
-        <v>8397713719.6893826</v>
-      </c>
-      <c r="F14">
-        <v>16659637699.36138</v>
-      </c>
-      <c r="G14">
-        <v>5.4214850129549559</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>0.31322849740396147</v>
-      </c>
-      <c r="D15">
-        <v>68852.677170974173</v>
-      </c>
-      <c r="E15">
-        <v>1191998690413.3914</v>
-      </c>
-      <c r="F15">
-        <v>1694556080269.5063</v>
-      </c>
-      <c r="G15">
-        <v>10.147704164784699</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>0.26698111766955995</v>
-      </c>
-      <c r="D16">
-        <v>39274.013348111286</v>
-      </c>
-      <c r="E16">
-        <v>12738920.171506403</v>
-      </c>
-      <c r="F16">
-        <v>14182975.825430201</v>
-      </c>
-      <c r="G16">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>0.35933783316164253</v>
-      </c>
-      <c r="D17">
-        <v>64026.44107621452</v>
-      </c>
-      <c r="E17">
-        <v>11660815.389813524</v>
-      </c>
-      <c r="F17">
-        <v>15746001.233835166</v>
-      </c>
-      <c r="G17">
-        <v>149551654.81536677</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>0.34387364708602081</v>
-      </c>
-      <c r="D18">
-        <v>9147441664.3559856</v>
-      </c>
-      <c r="E18">
-        <v>1.9290048029375352E+18</v>
-      </c>
-      <c r="F18">
-        <v>2.801819736520597E+18</v>
-      </c>
-      <c r="G18">
-        <v>18.279787512399285</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>0.33506683054146424</v>
-      </c>
-      <c r="D19">
-        <v>621158150.54461765</v>
-      </c>
-      <c r="E19">
-        <v>2.2739472572257246E+20</v>
-      </c>
-      <c r="F19">
-        <v>3.6764427167066312E+20</v>
-      </c>
-      <c r="G19">
-        <v>1.3901698702784904</v>
-      </c>
-      <c r="M19" s="27"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>0.45280611092443795</v>
-      </c>
-      <c r="D20">
-        <v>2723227.9512344319</v>
-      </c>
-      <c r="E20">
-        <v>7078511204.2171917</v>
-      </c>
-      <c r="F20">
-        <v>10784896704.219383</v>
-      </c>
-      <c r="G20">
-        <v>6.92028242188655</v>
-      </c>
-      <c r="M20" s="27"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="M21" s="27"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="M22" s="27"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="M23" s="27"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="M24" s="27"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="M25" s="28"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="M26" s="27"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F5:R37"/>
   <sheetViews>
     <sheetView topLeftCell="D25" workbookViewId="0">
@@ -10266,30 +9416,30 @@
       <c r="K5" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="28">
         <v>16000</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="28">
         <v>27900</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="28">
         <v>36500</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="28">
         <v>49600</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="28">
         <v>57100</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="Q5" s="28">
         <v>60000</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="29">
         <v>76600</v>
       </c>
     </row>
     <row r="6" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="25" t="s">
         <v>75</v>
       </c>
       <c r="L6">
@@ -10315,7 +9465,7 @@
       </c>
     </row>
     <row r="7" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="26" t="s">
         <v>61</v>
       </c>
       <c r="L7">
@@ -10341,7 +9491,7 @@
       </c>
     </row>
     <row r="8" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="26" t="s">
         <v>66</v>
       </c>
       <c r="L8">
@@ -10367,7 +9517,7 @@
       </c>
     </row>
     <row r="9" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="26" t="s">
         <v>62</v>
       </c>
       <c r="L9">
@@ -10393,7 +9543,7 @@
       </c>
     </row>
     <row r="10" spans="11:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="26" t="s">
         <v>63</v>
       </c>
       <c r="L10">
@@ -10419,7 +9569,7 @@
       </c>
     </row>
     <row r="11" spans="11:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="26" t="s">
         <v>64</v>
       </c>
       <c r="L11">
@@ -10445,7 +9595,7 @@
       </c>
     </row>
     <row r="12" spans="11:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="26" t="s">
         <v>65</v>
       </c>
       <c r="L12">
@@ -10471,7 +9621,7 @@
       </c>
     </row>
     <row r="13" spans="11:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="27" t="s">
         <v>67</v>
       </c>
       <c r="L13">
@@ -10497,7 +9647,7 @@
       </c>
     </row>
     <row r="14" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K14" s="27" t="s">
+      <c r="K14" s="26" t="s">
         <v>68</v>
       </c>
       <c r="L14">
@@ -10524,7 +9674,7 @@
     </row>
     <row r="17" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="19" t="s">
         <v>75</v>
       </c>
       <c r="L18">
@@ -10550,59 +9700,59 @@
       </c>
     </row>
     <row r="19" spans="6:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="22">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="22">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="22">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O19" s="22">
         <v>6.4000000000000005E-4</v>
       </c>
-      <c r="P19" s="23">
+      <c r="P19" s="22">
         <v>5.8E-4</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="Q19" s="22">
         <v>5.6999999999999998E-4</v>
       </c>
-      <c r="R19" s="25">
+      <c r="R19" s="24">
         <v>3.8999999999999999E-4</v>
       </c>
     </row>
     <row r="20" spans="6:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="22">
         <v>7.46E-2</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="22">
         <v>5.62E-2</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="22">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O20" s="22">
         <v>4.1799999999999997E-2</v>
       </c>
-      <c r="P20" s="23">
+      <c r="P20" s="22">
         <v>3.918E-2</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="Q20" s="22">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="R20" s="25">
+      <c r="R20" s="24">
         <v>2.0400000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="6:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K21" s="21" t="s">
+      <c r="K21" s="20" t="s">
         <v>79</v>
       </c>
       <c r="L21">
@@ -10629,274 +9779,274 @@
     </row>
     <row r="26" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="34">
         <v>16000</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="34">
         <v>27900</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="34">
         <v>36500</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="34">
         <v>49600</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="34">
         <v>57100</v>
       </c>
-      <c r="L27" s="36">
+      <c r="L27" s="34">
         <v>60000</v>
       </c>
-      <c r="M27" s="36">
+      <c r="M27" s="34">
         <v>76600</v>
       </c>
     </row>
     <row r="28" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="37"/>
-      <c r="G28" s="91" t="s">
+      <c r="F28" s="35"/>
+      <c r="G28" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="93"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="90"/>
     </row>
     <row r="29" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="39">
+      <c r="G29" s="37">
         <v>1.146E-2</v>
       </c>
-      <c r="H29" s="39">
+      <c r="H29" s="37">
         <v>8.4089999999999998E-3</v>
       </c>
-      <c r="I29" s="39">
+      <c r="I29" s="37">
         <v>7.2880000000000002E-3</v>
       </c>
-      <c r="J29" s="39">
+      <c r="J29" s="37">
         <v>5.7679999999999997E-3</v>
       </c>
-      <c r="K29" s="39">
+      <c r="K29" s="37">
         <v>4.3639999999999998E-3</v>
       </c>
-      <c r="L29" s="39">
+      <c r="L29" s="37">
         <v>3.885E-3</v>
       </c>
-      <c r="M29" s="39">
+      <c r="M29" s="37">
         <v>3.1909999999999998E-3</v>
       </c>
     </row>
     <row r="30" spans="6:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="39">
+      <c r="G30" s="37">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H30" s="39">
+      <c r="H30" s="37">
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="I30" s="39">
+      <c r="I30" s="37">
         <v>5.2900000000000003E-2</v>
       </c>
-      <c r="J30" s="39">
+      <c r="J30" s="37">
         <v>4.6210000000000001E-2</v>
       </c>
-      <c r="K30" s="39">
+      <c r="K30" s="37">
         <v>4.3380000000000002E-2</v>
       </c>
-      <c r="L30" s="39">
+      <c r="L30" s="37">
         <v>4.2430000000000002E-2</v>
       </c>
-      <c r="M30" s="39">
+      <c r="M30" s="37">
         <v>1.941E-3</v>
       </c>
     </row>
     <row r="31" spans="6:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="37">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="37">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="I31" s="39">
+      <c r="I31" s="37">
         <v>2.5790000000000001E-3</v>
       </c>
-      <c r="J31" s="39">
+      <c r="J31" s="37">
         <v>2.2200000000000002E-3</v>
       </c>
-      <c r="K31" s="39">
+      <c r="K31" s="37">
         <v>2E-3</v>
       </c>
-      <c r="L31" s="39">
+      <c r="L31" s="37">
         <v>1.9980000000000002E-3</v>
       </c>
-      <c r="M31" s="39">
+      <c r="M31" s="37">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="32" spans="6:18" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="39">
+      <c r="G32" s="37">
         <v>3.4130000000000001E-2</v>
       </c>
-      <c r="H32" s="39">
+      <c r="H32" s="37">
         <v>2.5899999999999999E-2</v>
       </c>
-      <c r="I32" s="39">
+      <c r="I32" s="37">
         <v>2.2710000000000001E-2</v>
       </c>
-      <c r="J32" s="39">
+      <c r="J32" s="37">
         <v>1.95E-2</v>
       </c>
-      <c r="K32" s="39">
+      <c r="K32" s="37">
         <v>1.8180000000000002E-2</v>
       </c>
-      <c r="L32" s="39">
+      <c r="L32" s="37">
         <v>1.7739999999999999E-2</v>
       </c>
-      <c r="M32" s="39">
+      <c r="M32" s="37">
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="33" spans="6:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="37">
         <v>3.7019999999999997E-2</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="37">
         <v>2.818E-2</v>
       </c>
-      <c r="I33" s="39">
+      <c r="I33" s="37">
         <v>2.4639999999999999E-2</v>
       </c>
-      <c r="J33" s="39">
+      <c r="J33" s="37">
         <v>2.12E-2</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="37">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="L33" s="39">
+      <c r="L33" s="37">
         <v>1.9269999999999999E-2</v>
       </c>
-      <c r="M33" s="39">
+      <c r="M33" s="37">
         <v>6.3099999999999996E-3</v>
       </c>
     </row>
     <row r="34" spans="6:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="G34" s="39">
+      <c r="G34" s="37">
         <v>5.4809999999999998E-2</v>
       </c>
-      <c r="H34" s="39">
+      <c r="H34" s="37">
         <v>4.2220000000000001E-2</v>
       </c>
-      <c r="I34" s="39">
+      <c r="I34" s="37">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="J34" s="39">
+      <c r="J34" s="37">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="K34" s="39">
+      <c r="K34" s="37">
         <v>2.9940000000000001E-2</v>
       </c>
-      <c r="L34" s="39">
+      <c r="L34" s="37">
         <v>2.92E-2</v>
       </c>
-      <c r="M34" s="39">
+      <c r="M34" s="37">
         <v>4.5199999999999997E-3</v>
       </c>
     </row>
     <row r="35" spans="6:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F35" s="38" t="s">
+      <c r="F35" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="39">
+      <c r="G35" s="37">
         <v>2.726E-2</v>
       </c>
-      <c r="H35" s="39">
+      <c r="H35" s="37">
         <v>2.06E-2</v>
       </c>
-      <c r="I35" s="39">
+      <c r="I35" s="37">
         <v>1.8069999999999999E-2</v>
       </c>
-      <c r="J35" s="39">
+      <c r="J35" s="37">
         <v>1.5509999999999999E-2</v>
       </c>
-      <c r="K35" s="39">
+      <c r="K35" s="37">
         <v>1.447E-2</v>
       </c>
-      <c r="L35" s="39">
+      <c r="L35" s="37">
         <v>1.41E-2</v>
       </c>
-      <c r="M35" s="39">
+      <c r="M35" s="37">
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="36" spans="6:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F36" s="38" t="s">
+      <c r="F36" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G36" s="39">
+      <c r="G36" s="37">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="H36" s="39">
+      <c r="H36" s="37">
         <v>1.12E-2</v>
       </c>
-      <c r="I36" s="39">
+      <c r="I36" s="37">
         <v>9.7900000000000001E-3</v>
       </c>
-      <c r="J36" s="39">
+      <c r="J36" s="37">
         <v>8.3899999999999999E-3</v>
       </c>
-      <c r="K36" s="39">
+      <c r="K36" s="37">
         <v>7.8189999999999996E-3</v>
       </c>
-      <c r="L36" s="39">
+      <c r="L36" s="37">
         <v>7.62E-3</v>
       </c>
-      <c r="M36" s="39">
+      <c r="M36" s="37">
         <v>4.2069999999999998E-3</v>
       </c>
     </row>
     <row r="37" spans="6:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="40">
+      <c r="G37" s="38">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H37" s="40">
+      <c r="H37" s="38">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="I37" s="40">
+      <c r="I37" s="38">
         <v>7.3600000000000002E-3</v>
       </c>
-      <c r="J37" s="40">
+      <c r="J37" s="38">
         <v>6.3E-3</v>
       </c>
-      <c r="K37" s="40">
+      <c r="K37" s="38">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="L37" s="40">
+      <c r="L37" s="38">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="M37" s="40">
+      <c r="M37" s="38">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -10909,7 +10059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I3:O19"/>
   <sheetViews>
@@ -11172,7 +10322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -11186,138 +10336,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="21">
         <v>1.051031378</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>0.25</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="22">
         <v>4</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="22">
         <v>0.53800000000000003</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="22">
         <v>1.4670000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22">
+      <c r="A3" s="21">
         <v>0.225274538</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="22">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <v>1.0620000000000001</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="22">
         <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
+      <c r="A4" s="21">
         <v>0.110535912</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>0.36499999999999999</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <v>5.8002663000000003E-2</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <v>0.23100000000000001</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>1.54E-2</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>3.4605404999999999E-2</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>0.16900000000000001</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2.1080000000000002E-2</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24">
+      <c r="A8" s="23">
         <v>2.0655E-2</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>0.124</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <v>2.6700000000000002E-2</v>
       </c>
     </row>
@@ -11325,30 +10475,30 @@
       <c r="F10" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="28">
         <v>210</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="28">
         <v>1175</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="28">
         <v>2875</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="28">
         <v>5275</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="28">
         <v>7775</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="28">
         <v>10275</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10" s="29">
         <v>13775</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>75</v>
       </c>
       <c r="G11">
@@ -11374,7 +10524,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="26" t="s">
         <v>61</v>
       </c>
       <c r="G12">
@@ -11400,7 +10550,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="26" t="s">
         <v>66</v>
       </c>
       <c r="G13">
@@ -11424,10 +10574,10 @@
       <c r="M13">
         <v>1.0460000000000001E-2</v>
       </c>
-      <c r="Q13" s="32"/>
+      <c r="Q13" s="30"/>
     </row>
     <row r="14" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="26" t="s">
         <v>62</v>
       </c>
       <c r="G14">
@@ -11451,10 +10601,10 @@
       <c r="M14">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="Q14" s="33"/>
+      <c r="Q14" s="31"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="26" t="s">
         <v>63</v>
       </c>
       <c r="G15">
@@ -11478,10 +10628,10 @@
       <c r="M15">
         <v>9.4E-2</v>
       </c>
-      <c r="Q15" s="33"/>
+      <c r="Q15" s="31"/>
     </row>
     <row r="16" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="26" t="s">
         <v>64</v>
       </c>
       <c r="G16">
@@ -11505,10 +10655,10 @@
       <c r="M16">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="Q16" s="33"/>
+      <c r="Q16" s="31"/>
     </row>
     <row r="17" spans="6:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="26" t="s">
         <v>65</v>
       </c>
       <c r="G17">
@@ -11532,10 +10682,10 @@
       <c r="M17">
         <v>6.3E-2</v>
       </c>
-      <c r="Q17" s="33"/>
+      <c r="Q17" s="31"/>
     </row>
     <row r="18" spans="6:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="27" t="s">
         <v>67</v>
       </c>
       <c r="G18">
@@ -11559,167 +10709,181 @@
       <c r="M18">
         <v>2.87E-2</v>
       </c>
-      <c r="Q18" s="33"/>
+      <c r="Q18" s="31"/>
     </row>
     <row r="19" spans="6:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="30">
         <v>1.4670000000000001</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="31">
         <v>0.23400000000000001</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="31">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="31">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="31">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="L19" s="33">
+      <c r="L19" s="31">
         <v>0.03</v>
       </c>
-      <c r="M19" s="34">
+      <c r="M19" s="32">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="Q19" s="34"/>
+      <c r="Q19" s="32"/>
     </row>
     <row r="22" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="21">
         <v>1.051031378</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="21">
         <v>0.225274538</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="21">
         <v>0.110535912</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="21">
         <v>5.8002663000000003E-2</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="21">
         <v>3.4605404999999999E-2</v>
       </c>
-      <c r="L23" s="22">
+      <c r="L23" s="21">
         <v>2.1080000000000002E-2</v>
       </c>
-      <c r="M23" s="24">
+      <c r="M23" s="23">
         <v>2.0655E-2</v>
       </c>
     </row>
     <row r="24" spans="6:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="22">
         <v>0.25</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="22">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="22">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="22">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="22">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="L24" s="23">
+      <c r="L24" s="22">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="M24" s="25">
+      <c r="M24" s="24">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="6:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="22">
         <v>4</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="22">
         <v>1.0620000000000001</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="22">
         <v>0.36499999999999999</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="22">
         <v>0.23100000000000001</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="22">
         <v>0.16900000000000001</v>
       </c>
-      <c r="L25" s="23">
+      <c r="L25" s="22">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25" s="24">
         <v>0.124</v>
       </c>
     </row>
     <row r="26" spans="6:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="22">
         <v>0.53800000000000003</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="22">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="22">
         <v>1.54E-2</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="22">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="22">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="M26" s="25">
+      <c r="M26" s="24">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="27" spans="6:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="22">
         <v>1.4670000000000001</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="22">
         <v>0.23400000000000001</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="22">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="22">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="22">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="L27" s="23">
+      <c r="L27" s="22">
         <v>0.03</v>
       </c>
-      <c r="M27" s="25">
+      <c r="M27" s="24">
         <v>2.6700000000000002E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:S9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>